--- a/all_filings.xlsx
+++ b/all_filings.xlsx
@@ -1,117 +1,48 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
-  <workbookPr showInkAnnotation="0" autoCompressPictures="0" defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alanuthuppan/Downloads/RA Finance/BCRED/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{691AD5E5-6C74-8D42-A64C-9B83F2FA8B96}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="4000" yWindow="540" windowWidth="25600" windowHeight="16140" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="25600" windowHeight="15780" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="22">
-  <si>
-    <t>Form type</t>
-  </si>
-  <si>
-    <t>Form description</t>
-  </si>
-  <si>
-    <t>10-Q</t>
-  </si>
-  <si>
-    <t>Quarterly report [Sections 13 or 15(d)]</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349823000012/0001803498-23-000012-index.htm</t>
-  </si>
-  <si>
-    <t>10-K</t>
-  </si>
-  <si>
-    <t>Annual report [Section 13 and 15(d), not S-K Item 405]</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349823000008/0001803498-23-000008-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349822000021/0001803498-22-000021-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349822000017/0001803498-22-000017-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349822000013/0001803498-22-000013-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349822000009/0001803498-22-000009-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349821000012/0001803498-21-000012-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349821000009/0001803498-21-000009-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349821000003/0001803498-21-000003-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000119312521069991/0001193125-21-069991-index.htm</t>
-  </si>
-  <si>
-    <t>https://www.sec.gov/Archives/edgar/data/1803498/000119312520294937/0001193125-20-294937-index.htm</t>
-  </si>
-  <si>
-    <t>total_investments_cost</t>
-  </si>
-  <si>
-    <t>total_investments_fv</t>
-  </si>
-  <si>
-    <t>date_filed</t>
-  </si>
-  <si>
-    <t>date_reported</t>
-  </si>
-  <si>
-    <t>html_link</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="4">
     <font>
+      <name val="Calibri"/>
       <sz val="11"/>
-      <name val="Calibri"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <sz val="11"/>
     </font>
     <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="10"/>
+      <sz val="11"/>
+      <u val="single"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <sz val="11"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -126,28 +57,91 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+  <cellXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleMedium4"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -447,233 +441,368 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.1640625" customWidth="1"/>
-    <col min="2" max="2" width="54" customWidth="1"/>
-    <col min="3" max="3" width="14.83203125" customWidth="1"/>
-    <col min="4" max="4" width="18.83203125" customWidth="1"/>
-    <col min="5" max="5" width="54" customWidth="1"/>
+    <col width="13.2" customWidth="1" min="1" max="1"/>
+    <col width="67.2" customWidth="1" min="2" max="2"/>
+    <col width="25.2" customWidth="1" min="3" max="3"/>
+    <col width="25.2" customWidth="1" min="4" max="4"/>
+    <col width="109.2" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I1" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="J1" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="B2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Form type</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Form description</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Filing date</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Reporting date</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Filings URL</t>
+        </is>
+      </c>
+    </row>
+    <row r="2" customFormat="1" s="4">
+      <c r="A2" s="4" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B2" s="4" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C2" s="5" t="n">
+        <v>45243</v>
+      </c>
+      <c r="D2" s="5" t="n">
+        <v>45199</v>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349823000021/bcred-20230930.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B3" s="4" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C3" s="2" t="n">
+        <v>45149</v>
+      </c>
+      <c r="D3" s="2" t="n">
+        <v>45107</v>
+      </c>
+      <c r="E3" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349823000017/bcred-20230630.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="n">
         <v>45056</v>
       </c>
-      <c r="D2" s="2">
+      <c r="D4" s="2" t="n">
         <v>45016</v>
       </c>
-      <c r="E2" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="E4" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349823000012/bcred-20230331.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>10-K</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Annual report [Section 13 and 15(d), not S-K Item 405]</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="n">
         <v>45002</v>
       </c>
-      <c r="D3" s="2">
+      <c r="D5" s="2" t="n">
         <v>44926</v>
       </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="2">
+      <c r="E5" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349823000008/bcred-20221231.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="n">
         <v>44879</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D6" s="2" t="n">
         <v>44834</v>
       </c>
-      <c r="E4" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="2">
+      <c r="E6" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349822000021/bcred-20220930.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="n">
         <v>44785</v>
       </c>
-      <c r="D5" s="2">
+      <c r="D7" s="2" t="n">
         <v>44742</v>
       </c>
-      <c r="E5" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="2">
+      <c r="E7" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349822000017/bcred-20220630.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="n">
         <v>44694</v>
       </c>
-      <c r="D6" s="2">
+      <c r="D8" s="2" t="n">
         <v>44651</v>
       </c>
-      <c r="E6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
-        <v>5</v>
-      </c>
-      <c r="B7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="2">
+      <c r="E8" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349822000013/bcred-03312022x10q.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>10-K</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Annual report [Section 13 and 15(d), not S-K Item 405]</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="n">
         <v>44629</v>
       </c>
-      <c r="D7" s="2">
+      <c r="D9" s="2" t="n">
         <v>44561</v>
       </c>
-      <c r="E7" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>3</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="E9" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349822000009/bcred-20211231x10k.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="n">
         <v>44515</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D10" s="2" t="n">
         <v>44469</v>
       </c>
-      <c r="E8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="2">
+      <c r="E10" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349821000012/bcred-09302021x10q.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="n">
         <v>44424</v>
       </c>
-      <c r="D9" s="2">
+      <c r="D11" s="2" t="n">
         <v>44377</v>
       </c>
-      <c r="E9" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" t="s">
-        <v>3</v>
-      </c>
-      <c r="C10" s="2">
+      <c r="E11" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349821000009/bcred-06302021x10q.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="n">
         <v>44326</v>
       </c>
-      <c r="D10" s="2">
+      <c r="D12" s="2" t="n">
         <v>44286</v>
       </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B11" t="s">
-        <v>6</v>
-      </c>
-      <c r="C11" s="2">
+      <c r="E12" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000180349821000003/bcred-03312021x10q.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>10-K</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Annual report [Section 13 and 15(d), not S-K Item 405]</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="n">
         <v>44260</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D13" s="2" t="n">
         <v>44196</v>
       </c>
-      <c r="E11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12" t="s">
-        <v>2</v>
-      </c>
-      <c r="B12" t="s">
-        <v>3</v>
-      </c>
-      <c r="C12" s="2">
+      <c r="E13" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000119312521069991/d145785d10k.htm</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>10-Q</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Quarterly report [Sections 13 or 15(d)]</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="n">
         <v>44151</v>
       </c>
-      <c r="D12" s="2">
+      <c r="D14" s="2" t="n">
         <v>44104</v>
       </c>
-      <c r="E12" t="s">
-        <v>16</v>
+      <c r="E14" s="3" t="inlineStr">
+        <is>
+          <t>https://www.sec.gov/Archives/edgar/data/1803498/000119312520294937/d50632d10q.htm</t>
+        </is>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E2" r:id="rId1"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E3" r:id="rId2"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E4" r:id="rId3"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E5" r:id="rId4"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E6" r:id="rId5"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E7" r:id="rId6"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E8" r:id="rId7"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E9" r:id="rId8"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E10" r:id="rId9"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E11" r:id="rId10"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E12" r:id="rId11"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E13" r:id="rId12"/>
+    <hyperlink xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" ref="E14" r:id="rId13"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>